--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>/iam/send-setting</t>
+          <t>/notify/send-setting</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/iam/mail-template</t>
+          <t>/notify/mail-template</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/iam/inmail-template</t>
+          <t>/notify/inmail-template</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/iam/mail-setting</t>
+          <t>/notify/mail-setting</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/iam/msg-record</t>
+          <t>/notify/msg-record</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/iam/announcement</t>
+          <t>/notify/announcement</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/iam/user-msg</t>
+          <t>/notify/user-msg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/iam/receive-setting</t>
+          <t>/notify/receive-setting</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="21900" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -410,11 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -422,16 +417,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -446,8 +464,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,9 +501,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,24 +524,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,47 +545,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,43 +764,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +797,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -844,149 +823,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,54 +996,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:N15"/>
   <sheetViews>
@@ -1345,22 +1345,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
+    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
-    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
-    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
-    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
-    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
+    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
+    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
+    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
+    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
+    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1641,27 +1641,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.7714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
-    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="12.7720588235294" customWidth="1"/>
+    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
+    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -1728,7 +1728,7 @@
         <v>53</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="6:15">
@@ -1760,7 +1760,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="6:15">
@@ -1792,7 +1792,7 @@
         <v>62</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="6:15">
@@ -1824,7 +1824,7 @@
         <v>66</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="6:15">
@@ -1856,7 +1856,7 @@
         <v>70</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="6:15">
@@ -1888,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -1920,7 +1920,7 @@
         <v>78</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="6:15">
@@ -1949,7 +1949,7 @@
         <v>83</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="6:15">
@@ -1981,7 +1981,7 @@
         <v>87</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="6:15">
@@ -2013,7 +2013,7 @@
         <v>91</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G33"/>
   <sheetViews>
@@ -2035,14 +2035,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9619047619048" customWidth="1"/>
-    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
+    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21900" windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>@SORT</t>
+    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.msg-center</t>
@@ -403,30 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -444,7 +422,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,17 +461,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,14 +479,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,22 +502,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,12 +522,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,31 +561,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,139 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +773,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -796,194 +852,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1646,7 +1646,7 @@
   <dimension ref="D7:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -403,22 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -433,10 +417,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,17 +470,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -479,7 +509,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +539,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,43 +551,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,11 +764,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,32 +823,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,159 +844,146 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1645,8 +1645,8 @@
   <sheetPr/>
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1856,7 +1856,7 @@
         <v>70</v>
       </c>
       <c r="O12">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="6:15">
@@ -1888,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="O13">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -1920,7 +1920,7 @@
         <v>78</v>
       </c>
       <c r="O14">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="6:15">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -304,6 +304,24 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
+    <t>notify-service.send-setting-site.query</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.sms-template.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.delSendSetting</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.update</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.listNames</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.pageSite</t>
   </si>
   <si>
@@ -313,6 +331,9 @@
     <t>notify-service.email-template-site.create</t>
   </si>
   <si>
+    <t>notify-service.email-template-site.delete</t>
+  </si>
+  <si>
     <t>notify-service.email-template-site.update</t>
   </si>
   <si>
@@ -328,6 +349,9 @@
     <t>notify-service.pm-template-site.create</t>
   </si>
   <si>
+    <t>notify-service.pm-template-site.delete</t>
+  </si>
+  <si>
     <t>notify-service.pm-template-site.update</t>
   </si>
   <si>
@@ -343,6 +367,9 @@
     <t>notify-service.config.updateEmail</t>
   </si>
   <si>
+    <t>notify-service.message-record-site.manualRetrySendEmail</t>
+  </si>
+  <si>
     <t>notify-service.message-record-site.pageEmail</t>
   </si>
   <si>
@@ -373,7 +400,10 @@
     <t>notify-service.receive-setting.queryByUserId</t>
   </si>
   <si>
-    <t>notify-service.receive-setting.updateByUserId</t>
+    <t>notify-service.send-setting-site.listLevelAndAllowConfig</t>
+  </si>
+  <si>
+    <t>iam-service.user.queryByUserIdOrganizationProject</t>
   </si>
   <si>
     <t>notify-service.receive-setting.update</t>
@@ -410,6 +440,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -417,35 +455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,15 +474,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -478,14 +498,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,32 +537,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,16 +559,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,25 +597,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,151 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,54 +795,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -823,6 +805,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,135 +843,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:N15"/>
   <sheetViews>
@@ -1345,22 +1375,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
-    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
+    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
-    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
-    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
-    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
-    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
-    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
+    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
+    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
+    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
+    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
+    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1641,27 +1671,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="12.7720588235294" customWidth="1"/>
-    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
-    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="12.7714285714286" customWidth="1"/>
+    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
+    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -2027,22 +2057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G33"/>
+  <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
-    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="53.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="65.5714285714286" customWidth="1"/>
+    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">
@@ -2059,57 +2089,69 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="6:7">
+    <row r="8" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" ht="12.8" customHeight="1" spans="4:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" ht="12.8" customHeight="1" spans="6:7">
       <c r="F14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -2117,7 +2159,7 @@
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>102</v>
@@ -2125,7 +2167,7 @@
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>103</v>
@@ -2133,7 +2175,7 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>104</v>
@@ -2141,79 +2183,79 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
         <v>113</v>
@@ -2221,7 +2263,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
         <v>114</v>
@@ -2229,7 +2271,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
         <v>115</v>
@@ -2237,7 +2279,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
         <v>116</v>
@@ -2245,7 +2287,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
         <v>117</v>
@@ -2253,7 +2295,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>118</v>
@@ -2261,10 +2303,90 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/notify-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/notify-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591148E2-104F-6B4D-913D-EA70188B837C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB372EF-2048-D244-93A4-D423FDAC9987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -205,10 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/notify/message-config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.route.msg-center.msg-config</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,13 +225,49 @@
   </si>
   <si>
     <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>消息服务路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notify/send-setting-content</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.pageSite</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>/notify/notify-setting</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.message-config</t>
+  </si>
+  <si>
+    <t>notify-service.config.selectEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -258,6 +291,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -275,15 +314,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:N12"/>
+  <dimension ref="D7:N13"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:XFD11"/>
+    <sheetView topLeftCell="E1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -705,16 +762,16 @@
     </row>
     <row r="10" spans="4:14" ht="19">
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
@@ -734,7 +791,7 @@
     </row>
     <row r="11" spans="4:14">
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -763,7 +820,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -787,6 +844,35 @@
         <v>1</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -805,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -936,6 +1022,9 @@
       <c r="H10" t="s">
         <v>48</v>
       </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
@@ -966,7 +1055,7 @@
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -975,7 +1064,7 @@
         <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
@@ -989,7 +1078,7 @@
     </row>
     <row r="12" spans="4:15" ht="19">
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1004,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -1021,7 +1110,7 @@
     </row>
     <row r="13" spans="4:15" ht="19">
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>40</v>
@@ -1030,13 +1119,13 @@
         <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
@@ -1066,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G49"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1097,12 +1186,22 @@
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="4:7" ht="12.75" customHeight="1">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="4:7" ht="12.75" customHeight="1">
       <c r="D10" s="1"/>
@@ -1158,4 +1257,58 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57961298-F0E5-A747-9A0C-5900CB64DC71}">
+  <dimension ref="D6:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="34.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:8" ht="14" thickBot="1"/>
+    <row r="7" spans="4:8" ht="29" thickBot="1">
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="19">
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/notify-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/notify-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB372EF-2048-D244-93A4-D423FDAC9987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D9122-B817-5448-9261-CDE599B516BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -121,9 +121,6 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
-    <t>message_modal</t>
-  </si>
-  <si>
     <t>message2</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.organization.announcement</t>
-  </si>
-  <si>
     <t>系统公告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,9 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.organization.message-log</t>
-  </si>
-  <si>
     <t>消息日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,9 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.organization.manager</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.message-service</t>
   </si>
   <si>
@@ -171,18 +159,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消息服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通知配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Message Service</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Message Config</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,14 +170,6 @@
     <t>choerodon.code.organization.message-setting</t>
   </si>
   <si>
-    <t>choerodon.route.msg-center.announcement-organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.msg-center.msg-record-organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通知配置路由</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,17 +197,6 @@
   </si>
   <si>
     <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>消息服务路由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notify-service</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notify/send-setting-content</t>
   </si>
   <si>
     <t>notify-service.send-setting-site.pageSite</t>
@@ -643,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:N13"/>
+  <dimension ref="D7:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -655,7 +616,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.19921875" customWidth="1"/>
@@ -702,24 +663,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" ht="19">
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -733,19 +694,19 @@
     </row>
     <row r="9" spans="4:14">
       <c r="F9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -760,24 +721,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" ht="19">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -786,93 +747,6 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -889,10 +763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:O13"/>
+  <dimension ref="D7:O10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -903,7 +777,7 @@
     <col min="6" max="6" width="40.19921875" customWidth="1"/>
     <col min="7" max="7" width="16.796875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" customWidth="1"/>
+    <col min="9" max="9" width="55.19921875" customWidth="1"/>
     <col min="10" max="10" width="18.59765625" customWidth="1"/>
     <col min="11" max="11" width="16.59765625" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" customWidth="1"/>
@@ -950,193 +824,97 @@
     </row>
     <row r="8" spans="4:15" ht="19">
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O8">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:15" ht="19">
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="4:15" ht="19">
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" ht="19">
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" ht="19">
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="19">
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13">
         <v>80</v>
       </c>
     </row>
@@ -1156,7 +934,7 @@
   <dimension ref="D7:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1187,20 +965,20 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="12.75" customHeight="1">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="12.75" customHeight="1">
@@ -1281,30 +1059,30 @@
     <row r="6" spans="4:8" ht="14" thickBot="1"/>
     <row r="7" spans="4:8" ht="29" thickBot="1">
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="19">
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
